--- a/data/activities.xlsx
+++ b/data/activities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kapoi\Downloads\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Satisfier\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8D8AAE-AACD-47D4-B6BE-74F10B23EE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3892C997-7669-4B2D-980E-AC3B26FCB773}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00C9D39E-54AE-4038-AC95-B45C6A85A896}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15495" xr2:uid="{00C9D39E-54AE-4038-AC95-B45C6A85A896}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -47,29 +36,29 @@
     <t>capacity</t>
   </si>
   <si>
-    <t>Musique</t>
-  </si>
-  <si>
-    <t>Danse</t>
-  </si>
-  <si>
-    <t>Arts plastiques</t>
-  </si>
-  <si>
-    <t>Sport</t>
-  </si>
-  <si>
-    <t>Informatique</t>
-  </si>
-  <si>
-    <t>Théâtre</t>
+    <t>Urban</t>
+  </si>
+  <si>
+    <t>Jeux de societe</t>
+  </si>
+  <si>
+    <t>Film</t>
+  </si>
+  <si>
+    <t>Code de la route</t>
+  </si>
+  <si>
+    <t>Patisserie</t>
+  </si>
+  <si>
+    <t>Poterie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,15 +426,15 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,70 +445,70 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
         <v>6</v>
       </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/activities.xlsx
+++ b/data/activities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Satisfier\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Travaux\Projets\Python\satisfier\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3892C997-7669-4B2D-980E-AC3B26FCB773}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80B6AE6-2085-4C56-8A2C-50FEFED39BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15495" xr2:uid="{00C9D39E-54AE-4038-AC95-B45C6A85A896}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00C9D39E-54AE-4038-AC95-B45C6A85A896}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,15 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>capacity</t>
-  </si>
-  <si>
     <t>Urban</t>
   </si>
   <si>
@@ -52,13 +43,22 @@
   </si>
   <si>
     <t>Poterie</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Activité</t>
+  </si>
+  <si>
+    <t>Capacité</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,86 +426,86 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>6</v>
